--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -196,10 +196,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>remote</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
+    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Execute</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Windows 10</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>chrome</t>
@@ -712,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,7 +744,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -758,7 +755,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>43</v>
@@ -770,7 +767,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -781,7 +778,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -792,7 +789,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -803,7 +800,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -814,7 +811,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -825,7 +822,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -836,7 +833,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -847,7 +844,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -881,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -906,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -710,7 +710,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -193,9 +193,6 @@
     <t>Windows 10</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>chrome</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>remote</t>
   </si>
 </sst>
 </file>
@@ -885,7 +885,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -909,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1000,10 +1000,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -72,10 +72,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1280x960</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>browserName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -187,9 +183,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>addInsuranceToExistingpatient</t>
-  </si>
-  <si>
     <t>Windows 10</t>
   </si>
   <si>
@@ -203,6 +196,12 @@
   </si>
   <si>
     <t>remote</t>
+  </si>
+  <si>
+    <t>addInsuranceToExistingPatient</t>
+  </si>
+  <si>
+    <t>1400x1050</t>
   </si>
 </sst>
 </file>
@@ -716,7 +715,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -750,21 +749,21 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -773,101 +772,101 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +884,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,18 +905,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -925,10 +924,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -944,12 +943,12 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
@@ -960,50 +959,50 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1155,34 +1154,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Execute</t>
   </si>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ACCESS_KEY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>qaheal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -202,6 +198,12 @@
   </si>
   <si>
     <t>1400x1050</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ACCESS_KEY</t>
   </si>
 </sst>
 </file>
@@ -330,8 +332,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -353,14 +361,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -715,7 +729,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -749,21 +763,21 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -772,101 +786,101 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +898,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -908,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -916,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -924,10 +938,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -943,26 +957,26 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
-        <v>.qa.heal.com</v>
+        <v>-dev.heal.com</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -970,39 +984,39 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1154,34 +1168,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
+    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Execute</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>1400x1050</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>ACCESS_KEY</t>
@@ -728,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -763,7 +760,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -774,7 +771,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>41</v>
@@ -786,7 +783,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -797,7 +794,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -808,7 +805,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -819,7 +816,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -830,7 +827,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -841,7 +838,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -852,7 +849,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
@@ -863,7 +860,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
@@ -897,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -966,7 +963,7 @@
       </c>
       <c r="B7" s="5" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
-        <v>-dev.heal.com</v>
+        <v>.qa.heal.com</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -976,7 +973,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -989,7 +986,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -80,10 +80,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>USERNAME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>qaheal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -188,9 +184,6 @@
     <t>threadCount</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>remote</t>
   </si>
   <si>
@@ -201,6 +194,12 @@
   </si>
   <si>
     <t>ACCESS_KEY</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -760,21 +759,21 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -783,101 +782,101 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +894,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -919,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -927,7 +926,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -935,10 +934,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -954,66 +953,66 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
-        <v>.qa.heal.com</v>
+        <v>-dev.heal.com</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1165,34 +1164,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Execute</t>
   </si>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>Test Input</t>
-  </si>
-  <si>
-    <t>checkMenuLinksLoggedIn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>platform</t>
@@ -200,13 +196,19 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>patient.web.tests.RegisterTest</t>
+  </si>
+  <si>
+    <t>registerAccount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,13 +250,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,15 +339,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -725,7 +719,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,124 +753,123 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -894,125 +887,125 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>49</v>
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5" t="str">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
-        <v>-dev.heal.com</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+        <v>.qa.heal.com</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1164,34 +1157,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/runs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="4778" yWindow="1238" windowWidth="28823" windowHeight="14543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Parameters" sheetId="4" r:id="rId2"/>
     <sheet name="Configs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Execute</t>
   </si>
@@ -168,51 +163,72 @@
     <t>1</t>
   </si>
   <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>threadCount</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>addInsuranceToExistingPatient</t>
+  </si>
+  <si>
+    <t>1400x1050</t>
+  </si>
+  <si>
+    <t>ACCESS_KEY</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>patient.web.tests.RegisterTest</t>
+  </si>
+  <si>
+    <t>registerAccount</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbCancelReasonVerify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbUserAccountVerify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient.web.tests.DBValidationSample</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Windows 10</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>threadCount</t>
-  </si>
-  <si>
-    <t>remote</t>
-  </si>
-  <si>
-    <t>addInsuranceToExistingPatient</t>
-  </si>
-  <si>
-    <t>1400x1050</t>
-  </si>
-  <si>
-    <t>ACCESS_KEY</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>patient.web.tests.RegisterTest</t>
-  </si>
-  <si>
-    <t>registerAccount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -227,13 +243,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -242,7 +258,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -250,14 +266,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -265,7 +281,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,20 +368,20 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -715,23 +731,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="36.1328125" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.65" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,20 +767,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -773,9 +789,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -784,9 +800,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
@@ -795,9 +811,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -806,20 +822,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -828,9 +844,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -839,9 +855,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -850,9 +866,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -861,15 +877,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -883,22 +921,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="3"/>
+    <col min="3" max="3" width="12.1328125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -906,23 +944,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -930,10 +968,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -941,15 +979,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -960,7 +998,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
@@ -968,23 +1006,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -992,7 +1030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1000,108 +1038,108 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="3"/>
     </row>
   </sheetData>
@@ -1129,7 +1167,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Configs!$A$2:$A$10</xm:f>
           </x14:formula1>
@@ -1142,20 +1180,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1163,7 +1201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1171,7 +1209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1179,7 +1217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>34</v>
       </c>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Execute</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Commment</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>patient.web.tests.RegisterTest</t>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>cancelVisit</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>bookVisitWithPromoCodeNoCreditCard</t>
@@ -1824,14 +1821,14 @@
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="5">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s" s="5">
         <v>17</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" t="s" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1863,10 +1860,10 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="9">
         <v>25</v>
-      </c>
-      <c r="B1" t="s" s="9">
-        <v>26</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="6"/>
@@ -1874,10 +1871,10 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s" s="11">
         <v>27</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>28</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1885,10 +1882,10 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="5">
         <v>29</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>30</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1896,23 +1893,23 @@
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="5">
         <v>31</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>32</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" t="s" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="5">
         <v>34</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>35</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1920,10 +1917,10 @@
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="5">
         <v>36</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>37</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1931,11 +1928,11 @@
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="12">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="12">
         <f>IF(B8="QA",'Configs'!B2,IF(B8="DEV",'Configs'!B3,IF(B8="PROD",'Configs'!B4,"")))</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1943,10 +1940,10 @@
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="14">
         <v>40</v>
-      </c>
-      <c r="B8" t="s" s="14">
-        <v>41</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="6"/>
@@ -1954,10 +1951,10 @@
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="15">
         <v>42</v>
-      </c>
-      <c r="B9" t="s" s="15">
-        <v>43</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1965,10 +1962,10 @@
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="5">
         <v>44</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>45</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1976,10 +1973,10 @@
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s" s="5">
         <v>46</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>47</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1987,10 +1984,10 @@
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s" s="5">
         <v>48</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>49</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1998,10 +1995,10 @@
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="5">
         <v>50</v>
-      </c>
-      <c r="B13" t="s" s="5">
-        <v>51</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2284,10 +2281,10 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s" s="5">
         <v>52</v>
-      </c>
-      <c r="B1" t="s" s="5">
-        <v>53</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2295,10 +2292,10 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2306,10 +2303,10 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s" s="5">
         <v>54</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>55</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2317,10 +2314,10 @@
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s" s="5">
         <v>56</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>57</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/runs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenarios" sheetId="1" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="2" r:id="rId5"/>
-    <sheet name="Configs" sheetId="3" r:id="rId6"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Configs" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Execute</t>
   </si>
@@ -184,39 +200,29 @@
   </si>
   <si>
     <t>doNotRunInPROD</t>
+  </si>
+  <si>
+    <t>qa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
@@ -397,62 +403,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,20 +430,8 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -484,8 +442,20 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -496,20 +466,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -518,34 +476,98 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff4f81bd"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="fffabf8f"/>
-      <rgbColor rgb="ff9bbb59"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -671,7 +693,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -680,7 +702,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -689,7 +711,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -763,7 +785,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -771,7 +793,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -790,7 +812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,9 +1063,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1058,7 +1086,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1066,7 +1094,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1085,7 +1113,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1139,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1165,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,9 +1360,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1348,7 +1382,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1367,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1431,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,7 +1457,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,7 +1483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1475,7 +1509,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1501,7 +1535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1527,7 +1561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1553,7 +1587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1579,7 +1613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1605,7 +1639,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1618,216 +1652,223 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="5">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" t="s" s="5">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="5">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" t="s" s="5">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="5">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" t="s" s="5">
+      <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="6"/>
@@ -1835,7 +1876,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1843,385 +1884,386 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.3516" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.6719" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.1719" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.17188" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="7" customWidth="1"/>
-    <col min="6" max="256" width="9.17188" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="7" customWidth="1"/>
+    <col min="6" max="256" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="8">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="11">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s" s="11">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="12">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s" s="12">
-        <f>IF(B8="QA",'Configs'!B2,IF(B8="DEV",'Configs'!B3,IF(B8="PROD",'Configs'!B4,"")))</f>
-        <v>38</v>
+      <c r="B7" s="12" t="str">
+        <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
+        <v>.qa.heal.com</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="13">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s" s="14">
-        <v>40</v>
+      <c r="B8" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="15">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="5">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2230,33 +2272,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" text="doNotRunInPROD">
+    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="doNotRunInPROD">
       <formula>NOT(ISERROR(FIND(UPPER("doNotRunInPROD"),UPPER(B7))))</formula>
       <formula>"doNotRunInPROD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(A8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" text="PROD">
+    <cfRule type="containsText" dxfId="2" priority="3" stopIfTrue="1" operator="containsText" text="PROD">
       <formula>NOT(ISERROR(FIND(UPPER("PROD"),UPPER(B8))))</formula>
       <formula>"PROD"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" text="QA">
+    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="QA">
       <formula>NOT(ISERROR(FIND(UPPER("QA"),UPPER(B8))))</formula>
       <formula>"QA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="0" priority="5" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(B8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2264,101 +2306,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1719" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.3516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="16" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="16" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="16" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="16" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="5">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2367,7 +2407,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/runs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="17640" yWindow="1220" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenarios" sheetId="1" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="2" r:id="rId5"/>
-    <sheet name="Configs" sheetId="3" r:id="rId6"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Configs" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Execute</t>
   </si>
@@ -184,39 +200,29 @@
   </si>
   <si>
     <t>doNotRunInPROD</t>
+  </si>
+  <si>
+    <t>qa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
@@ -397,62 +403,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,20 +430,8 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -484,8 +442,20 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -496,20 +466,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="ff000000"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -518,34 +476,98 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff4f81bd"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="fffabf8f"/>
-      <rgbColor rgb="ff9bbb59"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -671,7 +693,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -680,7 +702,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -689,7 +711,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -763,7 +785,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -771,7 +793,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -790,7 +812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,9 +1063,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1058,7 +1086,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1066,7 +1094,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1085,7 +1113,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1139,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1165,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,9 +1360,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1348,7 +1382,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1367,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1431,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,7 +1457,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,7 +1483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1475,7 +1509,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1501,7 +1535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1527,7 +1561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1553,7 +1587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1579,7 +1613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1605,7 +1639,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1618,216 +1652,225 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:6" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
+    <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="5">
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" t="s" s="5">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="5">
+    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" t="s" s="5">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="5">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" t="s" s="5">
+      <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="6"/>
@@ -1835,7 +1878,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1843,385 +1886,386 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.3516" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.6719" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.1719" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.17188" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="7" customWidth="1"/>
-    <col min="6" max="256" width="9.17188" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="7" customWidth="1"/>
+    <col min="6" max="256" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="8">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="11">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s" s="11">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="12">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s" s="12">
-        <f>IF(B8="QA",'Configs'!B2,IF(B8="DEV",'Configs'!B3,IF(B8="PROD",'Configs'!B4,"")))</f>
-        <v>38</v>
+      <c r="B7" s="12" t="str">
+        <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
+        <v>.qa.heal.com</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="13">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s" s="14">
-        <v>40</v>
+      <c r="B8" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="15">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="5">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2230,33 +2274,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" text="doNotRunInPROD">
+    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="doNotRunInPROD">
       <formula>NOT(ISERROR(FIND(UPPER("doNotRunInPROD"),UPPER(B7))))</formula>
       <formula>"doNotRunInPROD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(A8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" text="PROD">
+    <cfRule type="containsText" dxfId="2" priority="3" stopIfTrue="1" operator="containsText" text="PROD">
       <formula>NOT(ISERROR(FIND(UPPER("PROD"),UPPER(B8))))</formula>
       <formula>"PROD"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" text="QA">
+    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="QA">
       <formula>NOT(ISERROR(FIND(UPPER("QA"),UPPER(B8))))</formula>
       <formula>"QA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" text="DEV">
+    <cfRule type="containsText" dxfId="0" priority="5" stopIfTrue="1" operator="containsText" text="DEV">
       <formula>NOT(ISERROR(FIND(UPPER("DEV"),UPPER(B8))))</formula>
       <formula>"DEV"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2264,101 +2308,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1719" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.3516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="16" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="16" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="16" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="16" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="5">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2367,7 +2409,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="1220" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="17640" yWindow="1220" windowWidth="15960" windowHeight="18080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Execute</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>qa</t>
+  </si>
+  <si>
+    <t>implicitWait</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -220,12 +226,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1673,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
@@ -1889,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2049,8 +2057,12 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="1220" windowWidth="15960" windowHeight="18080" activeTab="1"/>
+    <workbookView xWindow="17640" yWindow="1220" windowWidth="27460" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Execute</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>bookVisitPayerOfflineTest</t>
   </si>
 </sst>
 </file>
@@ -1679,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1873,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1879,10 +1882,24 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1897,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Execute</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>bookVisitPayerOfflineTest</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1688,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -1749,7 +1752,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1777,7 +1780,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1791,7 +1794,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -1805,7 +1808,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -1819,7 +1822,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>17</v>
@@ -1875,7 +1878,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>17</v>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="1220" windowWidth="27460" windowHeight="18080"/>
+    <workbookView xWindow="6140" yWindow="1220" windowWidth="27460" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Execute</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>bookVisitPayerOfflineTest</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1685,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A12" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1721,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1738,7 +1735,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -1752,7 +1749,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -1766,7 +1763,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1780,7 +1777,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1794,7 +1791,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -1808,7 +1805,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -1822,7 +1819,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
@@ -1836,7 +1833,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1850,7 +1847,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>17</v>
@@ -1878,7 +1875,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
@@ -1892,7 +1889,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>17</v>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Execute</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>bookVisitPayerOfflineTest</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1688,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:A14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -1749,7 +1752,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1777,7 +1780,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1791,7 +1794,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -1805,7 +1808,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -1819,7 +1822,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>17</v>
@@ -1861,7 +1864,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>17</v>
@@ -1875,7 +1878,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>17</v>

--- a/Automation/runs/Critical_path_Patient.xlsx
+++ b/Automation/runs/Critical_path_Patient.xlsx
@@ -1688,7 +1688,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
